--- a/xlsx/法国国家图书馆_intext.xlsx
+++ b/xlsx/法国国家图书馆_intext.xlsx
@@ -29,13 +29,13 @@
     <t>巴黎</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_法国国家图书馆</t>
+    <t>政策_政策_维基百科_法国国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%85</t>
   </si>
   <si>
-    <t>歐羅</t>
+    <t>欧罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>歐洲圖書館</t>
+    <t>欧洲图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%B7%B4%E9%BB%8E%E5%90%8D%E8%83%9C</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%97%E9%83%BD%E5%A4%9C%E7%B8%BD%E6%9C%83</t>
   </si>
   <si>
-    <t>麗都夜總會</t>
+    <t>丽都夜总会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%B2%81%E7%B4%A2%E5%87%AF%E6%97%8B%E9%97%A8</t>
@@ -119,19 +119,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E8%AD%89%E5%88%B8%E4%BA%A4%E6%98%93%E6%89%80</t>
   </si>
   <si>
-    <t>巴黎證券交易所</t>
+    <t>巴黎证券交易所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%96%E8%92%99%E5%B1%B1%E4%B8%98%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>肖蒙山丘公園</t>
+    <t>肖蒙山丘公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%B4%8D%E7%93%A6%E9%9B%B7%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>卡納瓦雷博物館</t>
+    <t>卡纳瓦雷博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E4%B8%8E%E5%B7%A5%E4%B8%9A%E5%9F%8E</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E8%97%9D%E7%BE%8E%E8%A1%93%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>工藝美術博物館</t>
+    <t>工艺美术博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E6%A0%BC%E9%9B%B7%E4%B8%87%E8%9C%A1%E5%83%8F%E9%A6%86</t>
@@ -221,13 +221,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E7%9A%87%E5%AE%AE</t>
   </si>
   <si>
-    <t>小皇宮</t>
+    <t>小皇宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%A3%AB%E5%BA%95%E6%AD%8C%E5%8A%87%E9%99%A2</t>
   </si>
   <si>
-    <t>巴士底歌劇院</t>
+    <t>巴士底歌剧院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E5%92%96%E5%95%A1%E9%A6%86</t>
@@ -239,31 +239,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E6%AD%8C%E5%8A%87%E9%99%A2</t>
   </si>
   <si>
-    <t>巴黎歌劇院</t>
+    <t>巴黎歌剧院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E8%80%81%E4%BD%9B%E7%88%BA%E7%99%BE%E8%B2%A8%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>巴黎老佛爺百貨公司</t>
+    <t>巴黎老佛爷百货公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E5%A4%A9%E7%99%BE%E8%B2%A8</t>
   </si>
   <si>
-    <t>春天百貨</t>
+    <t>春天百货</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%98%E5%9C%92%E7%BE%8E%E8%A1%93%E9%A4%A8</t>
   </si>
   <si>
-    <t>橘園美術館</t>
+    <t>橘园美术馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E7%9A%87%E5%AE%B6%E5%AE%AE%E6%AE%BF</t>
   </si>
   <si>
-    <t>巴黎皇家宮殿</t>
+    <t>巴黎皇家宫殿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%9B%AA%E5%85%B9%E7%A5%9E%E7%88%B6%E5%85%AC%E5%A2%93</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E4%B8%98%E5%BB%A3%E5%A0%B4</t>
   </si>
   <si>
-    <t>小丘廣場</t>
+    <t>小丘广场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%BA%E5%A4%9A%E5%A7%86%E5%B9%BF%E5%9C%BA</t>
@@ -323,37 +323,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E4%B8%B9%E5%B0%BC%E9%96%80</t>
   </si>
   <si>
-    <t>聖丹尼門</t>
+    <t>圣丹尼门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E9%A6%AC%E4%B8%81%E9%96%80</t>
   </si>
   <si>
-    <t>聖馬丁門</t>
+    <t>圣马丁门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BE%90%E7%95%A2%E5%BA%A6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>龐畢度中心</t>
+    <t>庞毕度中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E9%A6%AC%E7%89%B9</t>
   </si>
   <si>
-    <t>蒙馬特</t>
+    <t>蒙马特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BF%83%E8%81%96%E6%AE%BF_(%E5%B7%B4%E9%BB%8E)</t>
   </si>
   <si>
-    <t>聖心聖殿 (巴黎)</t>
+    <t>圣心圣殿 (巴黎)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E7%A3%A8%E5%9D%8A</t>
   </si>
   <si>
-    <t>紅磨坊</t>
+    <t>红磨坊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A5%A5%E6%96%AF%E5%AE%9A%E5%A0%82_(%E5%B7%B4%E9%BB%8E)</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E6%A8%82%E9%BA%97%E8%8A%B1%E5%9C%92</t>
   </si>
   <si>
-    <t>杜樂麗花園</t>
+    <t>杜乐丽花园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E5%8A%A0%E5%8B%92%E5%8C%BA</t>
@@ -437,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%A5%9E%E5%BB%A3%E5%A0%B4_(%E5%B7%B4%E9%BB%8E)</t>
   </si>
   <si>
-    <t>戰神廣場 (巴黎)</t>
+    <t>战神广场 (巴黎)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%94%90%E4%BA%BA%E8%A1%97</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%8F%B2%E7%88%BE%E9%90%B5%E5%A1%94</t>
   </si>
   <si>
-    <t>艾菲爾鐵塔</t>
+    <t>艾菲尔铁塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%B1%B3%E6%AD%87%E5%B0%94%E5%96%B7%E6%B3%89</t>
@@ -509,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E5%88%A9%E6%B2%B3%E5%B2%B8%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>布朗利河岸博物館</t>
+    <t>布朗利河岸博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E4%B8%AD%E4%B8%96%E7%B4%80%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立中世紀博物館</t>
+    <t>国立中世纪博物馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%B5%9B%E5%8D%9A%E7%89%A9%E9%A6%86</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%B8%B9%E7%BE%8E%E8%A1%93%E9%A4%A8</t>
   </si>
   <si>
-    <t>羅丹美術館</t>
+    <t>罗丹美术馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E8%87%AA%E7%84%B6%E5%8E%86%E5%8F%B2%E5%8D%9A%E7%89%A9%E9%A6%86_(%E6%B3%95%E5%9B%BD)</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%B8%95%E7%B4%8D%E6%96%AF%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>蒙帕納斯大樓</t>
+    <t>蒙帕纳斯大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%B2%B1%E5%B2%9B</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E5%B3%B6_(%E5%B7%B4%E9%BB%8E)</t>
   </si>
   <si>
-    <t>聖路易島 (巴黎)</t>
+    <t>圣路易岛 (巴黎)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%BA%B3%E6%B2%B3</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%BC%E8%A0%85%E8%88%B9</t>
   </si>
   <si>
-    <t>蒼蠅船</t>
+    <t>苍蝇船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%8F%A4%E7%9B%91%E7%8B%B1</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E8%81%96%E6%AF%8D%E9%99%A2</t>
   </si>
   <si>
-    <t>巴黎聖母院</t>
+    <t>巴黎圣母院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E4%B8%89%E4%B8%96%E6%A1%A5</t>
@@ -659,13 +659,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%A9%8B_(%E5%B7%B4%E9%BB%8E)</t>
   </si>
   <si>
-    <t>新橋 (巴黎)</t>
+    <t>新桥 (巴黎)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%A6%AE%E6%8B%9C%E5%A0%82</t>
   </si>
   <si>
-    <t>聖禮拜堂</t>
+    <t>圣礼拜堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E8%A5%BF%E5%B2%9B</t>
@@ -689,13 +689,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E8%BF%AA%E5%A3%AB%E5%B0%BC%E6%A8%82%E5%9C%92</t>
   </si>
   <si>
-    <t>巴黎迪士尼樂園</t>
+    <t>巴黎迪士尼乐园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BA%AB%E6%98%82%E5%9F%8E%E5%A0%A1</t>
   </si>
   <si>
-    <t>埃庫昂城堡</t>
+    <t>埃库昂城堡</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/France_Miniature</t>
@@ -713,13 +713,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E6%8B%89%E7%91%AA%E9%A0%8C%E5%9F%8E%E5%A0%A1</t>
   </si>
   <si>
-    <t>瑪拉瑪頌城堡</t>
+    <t>玛拉玛颂城堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E8%88%AA%E7%A9%BA%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
-    <t>法國航空博物館</t>
+    <t>法国航空博物馆</t>
   </si>
   <si>
     <t>https://fr.wikipedia.org/wiki/Mus%C3%A9e_Fragonard_de_l%27%C3%89cole_v%C3%A9t%C3%A9rinaire_de_Maisons-Alfort</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E7%89%B9%E9%87%8C%E5%85%8B%E6%96%AF%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>阿斯特里克斯公園</t>
+    <t>阿斯特里克斯公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%BD%97%E4%B8%87</t>
@@ -761,7 +761,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%97%A5%E8%80%B3%E6%9B%BC%E6%98%82%E8%90%8A%E5%9F%8E%E5%A0%A1</t>
   </si>
   <si>
-    <t>聖日耳曼昂萊城堡</t>
+    <t>圣日耳曼昂莱城堡</t>
   </si>
   <si>
     <t>https://fr.wikipedia.org/wiki/Parc_de_Sceaux</t>
@@ -773,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E9%AB%94%E8%82%B2%E5%A0%B4</t>
   </si>
   <si>
-    <t>法蘭西體育場</t>
+    <t>法兰西体育场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%90%E7%88%B5%E5%9F%8E%E5%A0%A1</t>
@@ -809,13 +809,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%9F%B3%E6%A8%82%E6%97%A5</t>
   </si>
   <si>
-    <t>世界音樂日</t>
+    <t>世界音乐日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%85%B1%E5%92%8C%E5%9C%8B%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>法國共和國衛隊</t>
+    <t>法国共和国卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E8%89%B2%E5%A4%9C%E6%99%9A</t>
@@ -833,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E6%B2%99%E7%81%98</t>
   </si>
   <si>
-    <t>巴黎沙灘</t>
+    <t>巴黎沙滩</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Landmarks_in_the_City_of_Paris</t>
@@ -851,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%9C%B0%E9%90%B5</t>
   </si>
   <si>
-    <t>巴黎地鐵</t>
+    <t>巴黎地铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E7%BB%BC%E5%90%88%E7%97%87</t>
@@ -869,31 +869,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%9C%83%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國會員國列表</t>
+    <t>联合国会员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%B7%B4%E5%B0%BC%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>阿爾巴尼亞國家圖書館</t>
+    <t>阿尔巴尼亚国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E7%88%BE%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>安道爾國家圖書館</t>
+    <t>安道尔国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>亞美尼亞國家圖書館</t>
+    <t>亚美尼亚国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%9C%B0%E5%88%A9%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -905,37 +905,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A1%9E%E6%8B%9C%E7%96%86%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>阿塞拜疆國家圖書館</t>
+    <t>阿塞拜疆国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>白俄羅斯國家圖書館</t>
+    <t>白俄罗斯国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>比利時國家圖書館</t>
+    <t>比利时国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9E%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%B6%AD%E9%82%A3%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>波斯尼亞和黑塞哥維那國家圖書館</t>
+    <t>波斯尼亚和黑塞哥维那国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%8A%A0%E5%88%A9%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>保加利亞國家圖書館</t>
+    <t>保加利亚国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BE%85%E5%9C%B0%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>克羅地亞國家圖書館</t>
+    <t>克罗地亚国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -953,25 +953,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>丹麥國家圖書館</t>
+    <t>丹麦国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>愛沙尼亞國家圖書館</t>
+    <t>爱沙尼亚国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>芬蘭國家圖書館</t>
+    <t>芬兰国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AD%AF%E5%90%89%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>格魯吉亞國家圖書館</t>
+    <t>格鲁吉亚国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -989,13 +989,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>匈牙利國家圖書館</t>
+    <t>匈牙利国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>冰島國家圖書館</t>
+    <t>冰岛国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1013,19 +1013,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B%E6%96%AF%E5%9D%A6%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>哈薩克斯坦國家圖書館</t>
+    <t>哈萨克斯坦国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>拉脫維亞國家圖書館</t>
+    <t>拉脱维亚国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E6%94%AF%E6%95%A6%E5%A3%AB%E7%99%BB%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>列支敦士登國家圖書館</t>
+    <t>列支敦士登国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1037,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>盧森堡國家圖書館</t>
+    <t>卢森堡国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%B6%E9%A1%BF%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1049,49 +1049,49 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>馬爾他國家圖書館</t>
+    <t>马尔他国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%88%BE%E5%A4%9A%E7%93%A6%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>摩爾多瓦國家圖書館</t>
+    <t>摩尔多瓦国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E7%B4%8D%E5%93%A5%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>摩納哥國家圖書館</t>
+    <t>摩纳哥国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>荷蘭國家圖書館</t>
+    <t>荷兰国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>挪威國家圖書館</t>
+    <t>挪威国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>波蘭國家圖書館</t>
+    <t>波兰国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>葡萄牙國家圖書館</t>
+    <t>葡萄牙国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>羅馬尼亞國家圖書館</t>
+    <t>罗马尼亚国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1103,19 +1103,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>塞爾維亞國家圖書館</t>
+    <t>塞尔维亚国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E4%BC%90%E5%85%8B%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>斯洛伐克國家圖書館</t>
+    <t>斯洛伐克国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>斯洛維尼亞國家圖書館</t>
+    <t>斯洛维尼亚国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1133,13 +1133,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>瑞士國家圖書館</t>
+    <t>瑞士国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>土耳其國家圖書館</t>
+    <t>土耳其国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1151,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>英國國家圖書館</t>
+    <t>英国国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%89%BF%E8%AE%A4%E5%9B%BD%E5%AE%B6%E5%88%97%E8%A1%A8</t>
@@ -1169,19 +1169,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A</t>
   </si>
   <si>
-    <t>主權</t>
+    <t>主权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>梵蒂岡國家圖書館</t>
+    <t>梵蒂冈国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1199,7 +1199,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1217,7 +1217,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BA%E6%9C%AF%E5%AE%B6%E8%81%94%E5%90%88%E5%90%8D%E5%BD%95</t>
@@ -1229,13 +1229,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>

--- a/xlsx/法国国家图书馆_intext.xlsx
+++ b/xlsx/法国国家图书馆_intext.xlsx
@@ -29,7 +29,7 @@
     <t>巴黎</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_法国国家图书馆</t>
+    <t>体育运动_体育运动_明成祖_法国国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E7%BE%85</t>
